--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1460113.544021767</v>
+        <v>1445184.87721928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1861185.768789562</v>
+        <v>1861185.768789561</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2357862.325109812</v>
+        <v>2357862.325109814</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.8950372953896</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>265.1806127579634</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73.03689209589194</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>113.2870337730225</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>24.3976937556304</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.1743669966221</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>394.2018941786167</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.31606325004063</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>40.67174917229957</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>319.5194584381684</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>135.3553342543433</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.47001067514569</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>28.74767401666234</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>156.4094357636399</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>53.50170169071311</v>
+        <v>53.50170169071306</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.42807039329317</v>
+        <v>35.42807039329308</v>
       </c>
       <c r="S12" t="n">
         <v>152.3181986878413</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>85.7344149088695</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>224.2110473578499</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
-        <v>28.64030514831244</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>274.8424066026383</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>159.3506755628385</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958676</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183525</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>18.58007567966357</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.79825004194709</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>157.1317512374762</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>180.587567949454</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958676</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183525</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>169.2914333832801</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>145.7627116979836</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>76.98769209874122</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938906</v>
@@ -2134,7 +2134,7 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>241.9181439680369</v>
       </c>
     </row>
     <row r="21">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>165.0140383262327</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>151.0482174230039</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>122.623872902726</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>67.2867259678997</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>104.6354350586182</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>103.577671927493</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>31.75070292883384</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>182.8414065694712</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>131.7947857420141</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548715</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548715</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y2" t="n">
-        <v>2642.120401548715</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4415,19 +4415,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286579</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286579</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>321.2872383163221</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>173.374144733929</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2453.870288883588</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2122.807401540017</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2122.807401540017</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1749.341643278937</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.341643278937</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>388.7731165986622</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.5755868835433</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>919.5755868835433</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D8" t="n">
-        <v>919.5755868835433</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E8" t="n">
-        <v>919.5755868835433</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="F8" t="n">
-        <v>508.5896820939358</v>
+        <v>452.1267133139167</v>
       </c>
       <c r="G8" t="n">
-        <v>90.62587399212265</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>90.62587399212265</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859355</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.5755868835433</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,34 +4901,34 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>687.0464092849195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>687.0464092849195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>687.0464092849195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>687.0464092849195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>687.0464092849195</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.300356692206</v>
+        <v>1202.096567730763</v>
       </c>
       <c r="C11" t="n">
-        <v>934.337839751794</v>
+        <v>833.134050790351</v>
       </c>
       <c r="D11" t="n">
-        <v>934.337839751794</v>
+        <v>474.8683521836005</v>
       </c>
       <c r="E11" t="n">
-        <v>934.337839751794</v>
+        <v>474.8683521836005</v>
       </c>
       <c r="F11" t="n">
-        <v>523.3519349621865</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="G11" t="n">
-        <v>523.3519349621865</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="H11" t="n">
-        <v>200.6050072468648</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="I11" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="J11" t="n">
-        <v>215.7775870444393</v>
+        <v>215.77758704444</v>
       </c>
       <c r="K11" t="n">
-        <v>564.1738308751528</v>
+        <v>564.173830875154</v>
       </c>
       <c r="L11" t="n">
-        <v>1048.666806192621</v>
+        <v>1048.666806192623</v>
       </c>
       <c r="M11" t="n">
-        <v>1604.36513850851</v>
+        <v>1604.365138508511</v>
       </c>
       <c r="N11" t="n">
-        <v>2154.423253260175</v>
+        <v>2154.423253260178</v>
       </c>
       <c r="O11" t="n">
-        <v>2628.639895377771</v>
+        <v>2628.639895377773</v>
       </c>
       <c r="P11" t="n">
-        <v>2995.698445127834</v>
+        <v>2995.698445127837</v>
       </c>
       <c r="Q11" t="n">
-        <v>3194.122369699639</v>
+        <v>3194.122369699643</v>
       </c>
       <c r="R11" t="n">
-        <v>3166.374884169189</v>
+        <v>3194.122369699643</v>
       </c>
       <c r="S11" t="n">
-        <v>3137.336829606904</v>
+        <v>3194.122369699643</v>
       </c>
       <c r="T11" t="n">
-        <v>3137.336829606904</v>
+        <v>3194.122369699643</v>
       </c>
       <c r="U11" t="n">
-        <v>3137.336829606904</v>
+        <v>3036.133040645461</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.273942263333</v>
+        <v>2705.070153301891</v>
       </c>
       <c r="W11" t="n">
-        <v>2453.505286993219</v>
+        <v>2352.301498031776</v>
       </c>
       <c r="X11" t="n">
-        <v>2080.039528732139</v>
+        <v>1978.835739770696</v>
       </c>
       <c r="Y11" t="n">
-        <v>1689.900196756327</v>
+        <v>1588.696407794884</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="J12" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="K12" t="n">
-        <v>355.9060257624198</v>
+        <v>355.9060257624201</v>
       </c>
       <c r="L12" t="n">
-        <v>809.9721611135008</v>
+        <v>809.9721611135014</v>
       </c>
       <c r="M12" t="n">
-        <v>1391.825145792529</v>
+        <v>1391.82514579253</v>
       </c>
       <c r="N12" t="n">
-        <v>2004.785061005878</v>
+        <v>1601.713577735528</v>
       </c>
       <c r="O12" t="n">
-        <v>2499.107953735426</v>
+        <v>2096.036470465077</v>
       </c>
       <c r="P12" t="n">
-        <v>2676.915881557612</v>
+        <v>2475.771104479179</v>
       </c>
       <c r="Q12" t="n">
         <v>2676.915881557612</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="C13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="D13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="E13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="F13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="G13" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="H13" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="I13" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="J13" t="n">
-        <v>63.88244739399279</v>
+        <v>63.88244739399286</v>
       </c>
       <c r="K13" t="n">
-        <v>142.3679338555489</v>
+        <v>142.3679338555492</v>
       </c>
       <c r="L13" t="n">
-        <v>298.3287695220704</v>
+        <v>298.3287695220708</v>
       </c>
       <c r="M13" t="n">
-        <v>473.1567265041811</v>
+        <v>473.1567265041816</v>
       </c>
       <c r="N13" t="n">
-        <v>649.2622818508075</v>
+        <v>649.2622818508083</v>
       </c>
       <c r="O13" t="n">
-        <v>795.9079702090256</v>
+        <v>795.9079702090265</v>
       </c>
       <c r="P13" t="n">
-        <v>897.8680081961037</v>
+        <v>897.8680081961048</v>
       </c>
       <c r="Q13" t="n">
-        <v>897.8680081961037</v>
+        <v>897.8680081961048</v>
       </c>
       <c r="R13" t="n">
-        <v>897.8680081961037</v>
+        <v>811.2675890962366</v>
       </c>
       <c r="S13" t="n">
-        <v>897.8680081961037</v>
+        <v>811.2675890962366</v>
       </c>
       <c r="T13" t="n">
-        <v>671.392202784134</v>
+        <v>811.2675890962366</v>
       </c>
       <c r="U13" t="n">
-        <v>382.2292185908649</v>
+        <v>522.1046049029676</v>
       </c>
       <c r="V13" t="n">
-        <v>353.2996174309534</v>
+        <v>522.1046049029676</v>
       </c>
       <c r="W13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="X13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
       <c r="Y13" t="n">
-        <v>63.88244739399279</v>
+        <v>232.6874348660069</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1397.061718429191</v>
+        <v>2094.732337045837</v>
       </c>
       <c r="C14" t="n">
-        <v>1028.099201488779</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="D14" t="n">
-        <v>669.8335028820286</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E14" t="n">
-        <v>392.2149103541111</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F14" t="n">
-        <v>392.2149103541111</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662054</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
         <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216833</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>3484.789894598738</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.098191343889</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V14" t="n">
-        <v>2900.035304000318</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W14" t="n">
-        <v>2547.266648730204</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X14" t="n">
-        <v>2173.800890469124</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y14" t="n">
-        <v>1783.661558493312</v>
+        <v>2481.332177109959</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
         <v>220.8126299914996</v>
@@ -5354,28 +5354,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>141.5996147899772</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L15" t="n">
-        <v>645.9611546560951</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M15" t="n">
-        <v>1286.506504123199</v>
+        <v>1168.937623104806</v>
       </c>
       <c r="N15" t="n">
-        <v>1660.196134132116</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O15" t="n">
-        <v>2209.632142884838</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
         <v>2656.336852567651</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662054</v>
+        <v>240.672641920795</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662054</v>
+        <v>240.672641920795</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662054</v>
+        <v>240.672641920795</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662054</v>
+        <v>92.75954833840188</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222301</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230482</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422858</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783898</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669884</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165604</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
         <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1050.897941190057</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>843.4576564424627</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>617.8284597548277</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>328.6762833325074</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V16" t="n">
-        <v>73.99179512662054</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="W16" t="n">
-        <v>73.99179512662054</v>
+        <v>240.672641920795</v>
       </c>
       <c r="X16" t="n">
-        <v>73.99179512662054</v>
+        <v>240.672641920795</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.99179512662054</v>
+        <v>240.672641920795</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2035.910253889014</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C17" t="n">
-        <v>1666.947736948603</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.682038341852</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>922.8937857436081</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F17" t="n">
-        <v>511.9078809540005</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540005</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H17" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604015</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389911</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449757</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216833</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3699.589756331027</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3699.589756331027</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U17" t="n">
-        <v>3517.178071533599</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V17" t="n">
-        <v>3186.115184190028</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W17" t="n">
-        <v>3186.115184190028</v>
+        <v>2547.266648730202</v>
       </c>
       <c r="X17" t="n">
-        <v>2812.649425928948</v>
+        <v>2173.800890469122</v>
       </c>
       <c r="Y17" t="n">
-        <v>2422.510093953136</v>
+        <v>2173.800890469122</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
         <v>220.8126299914996</v>
@@ -5591,28 +5591,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>192.651046983516</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468725</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>764.6204065129905</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1405.165755980094</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N18" t="n">
-        <v>1603.822497632759</v>
+        <v>1767.497760227163</v>
       </c>
       <c r="O18" t="n">
-        <v>2153.258506385481</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P18" t="n">
-        <v>2577.226274866317</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.336852567651</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>221.2268574478161</v>
+        <v>392.7152795435728</v>
       </c>
       <c r="C19" t="n">
-        <v>221.2268574478161</v>
+        <v>392.7152795435728</v>
       </c>
       <c r="D19" t="n">
-        <v>221.2268574478161</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E19" t="n">
-        <v>221.2268574478161</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F19" t="n">
-        <v>221.2268574478161</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662054</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222301</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230482</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422858</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783898</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669884</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165604</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
         <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>943.4485153053661</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>736.0082305577714</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>510.3790338701364</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U19" t="n">
-        <v>221.2268574478161</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V19" t="n">
-        <v>221.2268574478161</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W19" t="n">
-        <v>221.2268574478161</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X19" t="n">
-        <v>221.2268574478161</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="Y19" t="n">
-        <v>221.2268574478161</v>
+        <v>563.7167274054719</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1786.709430001876</v>
+        <v>1717.687138661524</v>
       </c>
       <c r="C20" t="n">
-        <v>1417.746913061465</v>
+        <v>1348.724621721112</v>
       </c>
       <c r="D20" t="n">
-        <v>1417.746913061465</v>
+        <v>990.4589231143618</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.981567507181</v>
+        <v>604.6706705161175</v>
       </c>
       <c r="F20" t="n">
-        <v>928.9956627175731</v>
+        <v>193.68476572651</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540005</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H20" t="n">
         <v>193.68476572651</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
         <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
@@ -5764,7 +5764,7 @@
         <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
         <v>3025.098749216832</v>
@@ -5782,22 +5782,22 @@
         <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3543.374718827853</v>
+        <v>3328.574857095565</v>
       </c>
       <c r="U20" t="n">
-        <v>3289.683015573004</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="V20" t="n">
-        <v>3289.683015573004</v>
+        <v>3074.883153840716</v>
       </c>
       <c r="W20" t="n">
-        <v>2936.91436030289</v>
+        <v>2722.114498570601</v>
       </c>
       <c r="X20" t="n">
-        <v>2563.44860204181</v>
+        <v>2348.648740309522</v>
       </c>
       <c r="Y20" t="n">
-        <v>2173.309270065998</v>
+        <v>2104.286978725646</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
@@ -5828,25 +5828,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K21" t="n">
-        <v>157.3616934996501</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L21" t="n">
-        <v>661.7232333657679</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.268582832872</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N21" t="n">
-        <v>1975.474275085654</v>
+        <v>1760.484767905933</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.910283838376</v>
+        <v>2309.920776658655</v>
       </c>
       <c r="P21" t="n">
         <v>2633.599911365674</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3297.148712357255</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C22" t="n">
-        <v>3297.148712357255</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D22" t="n">
-        <v>3147.032072944919</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E22" t="n">
-        <v>2999.118979362526</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F22" t="n">
-        <v>2852.229031864616</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G22" t="n">
-        <v>2699.655074871683</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H22" t="n">
-        <v>2699.655074871683</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I22" t="n">
-        <v>2699.655074871683</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J22" t="n">
-        <v>2699.655074871683</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K22" t="n">
-        <v>2800.703004467292</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M22" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O22" t="n">
-        <v>3570.72386031205</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U22" t="n">
-        <v>3699.589756331025</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V22" t="n">
-        <v>3699.589756331025</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="W22" t="n">
-        <v>3699.589756331025</v>
+        <v>240.672641920795</v>
       </c>
       <c r="X22" t="n">
-        <v>3699.589756331025</v>
+        <v>240.672641920795</v>
       </c>
       <c r="Y22" t="n">
-        <v>3478.797177187495</v>
+        <v>240.672641920795</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,10 +6010,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1039.489963795367</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265284</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483981</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>390.0157722697342</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>221.0795893418272</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>571.6642370999739</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6463,19 +6463,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>745.6707680030239</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4148.020508932908</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>3893.336020727022</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>3603.918850690061</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6703,7 +6703,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M33" t="n">
-        <v>1427.741252113633</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N33" t="n">
-        <v>1757.603879777666</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.8933943850831</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C34" t="n">
-        <v>444.8933943850831</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D34" t="n">
-        <v>444.8933943850831</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E34" t="n">
-        <v>444.8933943850831</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>482.6193631635866</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>314.4440414834072</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6891,19 +6891,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>665.6859735286132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.8933943850831</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6934,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.607977814708</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>659.373105721172</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011336</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1771.104817265284</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>517.9294177607301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>370.016324178337</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>370.016324178337</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>201.8410024981576</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7131,16 +7131,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y37" t="n">
-        <v>699.5778825909698</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>485.4047026089419</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>732.1698305154059</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="41">
@@ -7408,34 +7408,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7447,7 +7447,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.787631771461</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.787631771461</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>1209.787631771461</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7651,16 +7651,16 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>843.7395088768801</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.7395088768801</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>28.3391920000831</v>
+        <v>28.33919200008297</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>72.1994619492597</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>114.4963987491123</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.900745232382008</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928625</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>82.48338126429735</v>
       </c>
       <c r="N15" t="n">
-        <v>176.8008973295478</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>366.5683748125779</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.9430671710676</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,13 +9482,13 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K21" t="n">
-        <v>15.9212916259324</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,7 +9497,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>217.1611183633542</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>73.53204524670059</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>87.16935584025435</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>87.16935584025441</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>199.6230805871097</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M42" t="n">
-        <v>38.8600230194989</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>73.53204524670076</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>158.8724419039333</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,10 +23275,10 @@
         <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.5194584381684</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543432</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.47001067514552</v>
       </c>
       <c r="S11" t="n">
-        <v>135.8703553837383</v>
+        <v>164.6180294004006</v>
       </c>
       <c r="T11" t="n">
         <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1897708139312</v>
+        <v>94.78033505029123</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.1169375972939</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>154.4561466672649</v>
@@ -23439,7 +23439,7 @@
         <v>129.1656554187737</v>
       </c>
       <c r="J13" t="n">
-        <v>31.56442760231841</v>
+        <v>31.56442760231832</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.97296450542743</v>
+        <v>12.97296450542733</v>
       </c>
       <c r="R13" t="n">
-        <v>137.9932954615212</v>
+        <v>52.25888055265165</v>
       </c>
       <c r="S13" t="n">
         <v>208.7844338901268</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>223.4973381755156</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>107.0879634696235</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>226.8872630932151</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>126.8409723432677</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23676,7 +23676,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176914</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.3749316258443</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>225.6020904260043</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>70.56721827284665</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>10.54054679865718</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>21.1580648565868</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176914</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>304.9426779735206</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>144.3197946880167</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>14.81794185570456</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>15.8725591315665</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24183,19 +24183,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>25.99160011548638</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>78.13432205503155</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>44.27839330891797</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>45.33615644004311</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238325</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>186.8339504232609</v>
       </c>
     </row>
     <row r="41">
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>35.74324678262357</v>
       </c>
     </row>
     <row r="44">
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>16.82068727619824</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761458.9357685095</v>
+        <v>761458.9357685099</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>817780.0503676203</v>
+        <v>817780.0503676198</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>817780.0503676201</v>
+        <v>817780.05036762</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>360224.5155594109</v>
+        <v>360224.5155594112</v>
       </c>
       <c r="F2" t="n">
-        <v>388396.0040473219</v>
+        <v>388396.0040473216</v>
       </c>
       <c r="G2" t="n">
-        <v>388396.0040473218</v>
+        <v>388396.0040473217</v>
       </c>
       <c r="H2" t="n">
-        <v>388396.0040473217</v>
+        <v>388396.0040473215</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>123022.0575261914</v>
+        <v>123022.0575261921</v>
       </c>
       <c r="F3" t="n">
-        <v>122192.163835929</v>
+        <v>122192.1638359278</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>255532.1595990993</v>
+        <v>255532.1595990994</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>30961.93223513093</v>
+        <v>30961.93223513124</v>
       </c>
       <c r="N3" t="n">
-        <v>30950.65265136648</v>
+        <v>30950.65265136606</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>25923.68944646591</v>
+        <v>25923.6894464659</v>
       </c>
       <c r="F4" t="n">
         <v>24740.78594361633</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>59117.03032849822</v>
+        <v>59117.03032849829</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360139</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360139</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925152</v>
+        <v>-366360.8073925156</v>
       </c>
       <c r="C6" t="n">
+        <v>223607.071822029</v>
+      </c>
+      <c r="D6" t="n">
         <v>223607.0718220292</v>
       </c>
-      <c r="D6" t="n">
-        <v>223607.0718220291</v>
-      </c>
       <c r="E6" t="n">
-        <v>152161.7382582554</v>
+        <v>147297.6294707526</v>
       </c>
       <c r="F6" t="n">
-        <v>172291.5109841751</v>
+        <v>168652.2495222352</v>
       </c>
       <c r="G6" t="n">
-        <v>294483.674820104</v>
+        <v>290844.413358163</v>
       </c>
       <c r="H6" t="n">
-        <v>294483.6748201044</v>
+        <v>290844.4133581629</v>
       </c>
       <c r="I6" t="n">
-        <v>79989.32556367862</v>
+        <v>79014.73430395691</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.265970185</v>
+        <v>158123.6747104634</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="L6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.893903056</v>
       </c>
       <c r="M6" t="n">
-        <v>304559.552927647</v>
+        <v>303584.9616679249</v>
       </c>
       <c r="N6" t="n">
-        <v>304570.8325114115</v>
+        <v>303596.2412516901</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030563</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>484.6958857368673</v>
+        <v>484.695885736868</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380638</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380638</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
         <v>593.4761003380635</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>798.5305924249099</v>
+        <v>798.5305924249108</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827567</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827567</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>106.9522215197807</v>
+        <v>106.9522215197813</v>
       </c>
       <c r="F3" t="n">
-        <v>108.7802146011965</v>
+        <v>108.7802146011955</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>236.9063051160367</v>
+        <v>236.9063051160368</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2433196703543</v>
+        <v>124.2433196703551</v>
       </c>
       <c r="F4" t="n">
-        <v>126.3668466578468</v>
+        <v>126.3668466578455</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>290.3162041708168</v>
+        <v>290.3162041708169</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703541</v>
+        <v>124.2433196703554</v>
       </c>
       <c r="N4" t="n">
-        <v>126.366846657847</v>
+        <v>126.3668466578453</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>124.2433196703543</v>
+        <v>124.2433196703551</v>
       </c>
       <c r="N4" t="n">
-        <v>126.3668466578468</v>
+        <v>126.3668466578455</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>218.838804368091</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>84.06035595944962</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,10 +27545,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>72.3841559270393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>105.2976195790723</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>226.8264737526589</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>64.86073846146218</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>19.58227584217826</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>115.6152529948206</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>105.9934428078583</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30203,7 +30203,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.94852617381655</v>
+        <v>1.948526173816553</v>
       </c>
       <c r="H11" t="n">
-        <v>19.95534367759875</v>
+        <v>19.95534367759878</v>
       </c>
       <c r="I11" t="n">
-        <v>75.12055531606264</v>
+        <v>75.12055531606273</v>
       </c>
       <c r="J11" t="n">
-        <v>165.3787233449626</v>
+        <v>165.3787233449628</v>
       </c>
       <c r="K11" t="n">
-        <v>247.8598362826172</v>
+        <v>247.8598362826176</v>
       </c>
       <c r="L11" t="n">
-        <v>307.4920441745555</v>
+        <v>307.492044174556</v>
       </c>
       <c r="M11" t="n">
-        <v>342.1441465181656</v>
+        <v>342.1441465181661</v>
       </c>
       <c r="N11" t="n">
-        <v>347.6803965095219</v>
+        <v>347.6803965095224</v>
       </c>
       <c r="O11" t="n">
-        <v>328.3047393686336</v>
+        <v>328.304739368634</v>
       </c>
       <c r="P11" t="n">
-        <v>280.2004994525374</v>
+        <v>280.2004994525378</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.4189058527322</v>
+        <v>210.4189058527325</v>
       </c>
       <c r="R11" t="n">
-        <v>122.399107266004</v>
+        <v>122.3991072660042</v>
       </c>
       <c r="S11" t="n">
-        <v>44.40204018584469</v>
+        <v>44.40204018584475</v>
       </c>
       <c r="T11" t="n">
-        <v>8.529673325881953</v>
+        <v>8.529673325881966</v>
       </c>
       <c r="U11" t="n">
-        <v>0.155882093905324</v>
+        <v>0.1558820939053242</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.042553414603828</v>
+        <v>1.042553414603829</v>
       </c>
       <c r="H12" t="n">
-        <v>10.06887113577907</v>
+        <v>10.06887113577909</v>
       </c>
       <c r="I12" t="n">
-        <v>35.89493116070197</v>
+        <v>35.89493116070202</v>
       </c>
       <c r="J12" t="n">
-        <v>98.49843466658359</v>
+        <v>98.49843466658372</v>
       </c>
       <c r="K12" t="n">
-        <v>168.34951344504</v>
+        <v>168.3495134450403</v>
       </c>
       <c r="L12" t="n">
-        <v>226.3666964472039</v>
+        <v>226.3666964472043</v>
       </c>
       <c r="M12" t="n">
-        <v>264.1592577265926</v>
+        <v>264.159257726593</v>
       </c>
       <c r="N12" t="n">
-        <v>271.1507672482122</v>
+        <v>271.1507672482126</v>
       </c>
       <c r="O12" t="n">
-        <v>248.0499784298853</v>
+        <v>248.0499784298856</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0819761623748</v>
+        <v>199.0819761623751</v>
       </c>
       <c r="Q12" t="n">
-        <v>133.0810288536395</v>
+        <v>133.0810288536397</v>
       </c>
       <c r="R12" t="n">
-        <v>64.72976375934996</v>
+        <v>64.72976375935005</v>
       </c>
       <c r="S12" t="n">
-        <v>19.36497241599653</v>
+        <v>19.36497241599655</v>
       </c>
       <c r="T12" t="n">
-        <v>4.202221877284726</v>
+        <v>4.202221877284731</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06858904043446239</v>
+        <v>0.06858904043446248</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8740417611648426</v>
+        <v>0.8740417611648438</v>
       </c>
       <c r="H13" t="n">
-        <v>7.771025840174697</v>
+        <v>7.771025840174707</v>
       </c>
       <c r="I13" t="n">
-        <v>26.28481950848455</v>
+        <v>26.28481950848458</v>
       </c>
       <c r="J13" t="n">
-        <v>61.79475251435436</v>
+        <v>61.79475251435446</v>
       </c>
       <c r="K13" t="n">
-        <v>101.5477609789699</v>
+        <v>101.54776097897</v>
       </c>
       <c r="L13" t="n">
-        <v>129.9461723826349</v>
+        <v>129.9461723826351</v>
       </c>
       <c r="M13" t="n">
-        <v>137.0100189796853</v>
+        <v>137.0100189796854</v>
       </c>
       <c r="N13" t="n">
-        <v>133.7522269607982</v>
+        <v>133.7522269607984</v>
       </c>
       <c r="O13" t="n">
-        <v>123.5418300235543</v>
+        <v>123.5418300235545</v>
       </c>
       <c r="P13" t="n">
-        <v>105.7113780957915</v>
+        <v>105.7113780957916</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.18907874626696</v>
+        <v>73.18907874626706</v>
       </c>
       <c r="R13" t="n">
-        <v>39.30009591564828</v>
+        <v>39.30009591564833</v>
       </c>
       <c r="S13" t="n">
-        <v>15.23216414684548</v>
+        <v>15.2321641468455</v>
       </c>
       <c r="T13" t="n">
-        <v>3.734542070431599</v>
+        <v>3.734542070431604</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04767500515444601</v>
+        <v>0.04767500515444608</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198245</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055153</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651542</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937397</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779014</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712523</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074816</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359661</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822511</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426693</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457571</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411494</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810506</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
         <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840364</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985299</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182831</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847381</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070424</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512816</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842447</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900646</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>303.719792594707</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607454</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080788</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308307</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897133</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888312</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206997</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490363</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104763</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937807</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685357</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522785</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390798</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198245</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055153</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651542</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937397</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779014</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712523</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074816</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359661</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822511</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426693</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.6431848457571</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411494</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810506</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
         <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.276533498840364</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985299</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182831</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>120.6044214847381</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070424</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512816</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842447</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900646</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>303.719792594707</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607454</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080788</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308307</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897133</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888312</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206997</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490363</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104763</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937807</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685357</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522785</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390798</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4294339903501</v>
+        <v>153.4294339903503</v>
       </c>
       <c r="K11" t="n">
-        <v>351.9153978088015</v>
+        <v>351.9153978088018</v>
       </c>
       <c r="L11" t="n">
-        <v>489.3868437550187</v>
+        <v>489.3868437550192</v>
       </c>
       <c r="M11" t="n">
-        <v>561.3114467837254</v>
+        <v>561.3114467837258</v>
       </c>
       <c r="N11" t="n">
-        <v>555.6142573249151</v>
+        <v>555.6142573249157</v>
       </c>
       <c r="O11" t="n">
-        <v>479.0067092096922</v>
+        <v>479.0067092096926</v>
       </c>
       <c r="P11" t="n">
-        <v>370.7662118687505</v>
+        <v>370.7662118687509</v>
       </c>
       <c r="Q11" t="n">
-        <v>200.4282066381874</v>
+        <v>200.4282066381876</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>294.9733114832596</v>
+        <v>294.9733114832599</v>
       </c>
       <c r="L12" t="n">
-        <v>458.6526619707889</v>
+        <v>458.6526619707893</v>
       </c>
       <c r="M12" t="n">
-        <v>587.7302875545743</v>
+        <v>587.7302875545746</v>
       </c>
       <c r="N12" t="n">
-        <v>619.1514295084324</v>
+        <v>212.008517114139</v>
       </c>
       <c r="O12" t="n">
-        <v>499.3160532621704</v>
+        <v>499.3160532621707</v>
       </c>
       <c r="P12" t="n">
-        <v>179.6039674971569</v>
+        <v>383.570337387982</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>203.1765425034673</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>79.27826915308702</v>
+        <v>79.27826915308717</v>
       </c>
       <c r="L13" t="n">
-        <v>157.536197642951</v>
+        <v>157.5361976429512</v>
       </c>
       <c r="M13" t="n">
-        <v>176.5938959415259</v>
+        <v>176.593895941526</v>
       </c>
       <c r="N13" t="n">
-        <v>177.8843993400268</v>
+        <v>177.884399340027</v>
       </c>
       <c r="O13" t="n">
-        <v>148.126957937594</v>
+        <v>148.1269579375942</v>
       </c>
       <c r="P13" t="n">
-        <v>102.9899373606849</v>
+        <v>102.9899373606851</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391272</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040856</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730413</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513593</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233097</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588824</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312123</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268344</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748666</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>263.7938220265236</v>
       </c>
       <c r="N15" t="n">
-        <v>377.4642727362791</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269922</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927638</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472388</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.068615753141</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493112</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353245</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391272</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040856</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730413</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513593</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233097</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588824</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312123</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268344</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748666</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122262</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067313</v>
+        <v>567.231750219309</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269922</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927638</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.90967444579148</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>102.068615753141</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493112</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353245</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>84.21201855861572</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122261</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
         <v>680.0057497502846</v>
@@ -36217,7 +36217,7 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528265</v>
+        <v>326.9486209161807</v>
       </c>
       <c r="Q21" t="n">
         <v>22.96660727472377</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>280.6254601782252</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>336.4270607962786</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>369.5330580813625</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>355.8957474878089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>350.1985191750489</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M42" t="n">
-        <v>349.2844000699651</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>383.956422297167</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>365.9658568354579</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
